--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carla\OneDrive\Documents\UiPath\UiPath_RPA_CarlosRivadeneira\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17501EC7-8B45-42E6-8A13-64991054B164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29130DEC-C10C-4240-9B88-B36037CAE9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>urlGuiaCNT</t>
   </si>
   <si>
-    <t>https://micnt.com.ec</t>
-  </si>
-  <si>
     <t>maxPaginas</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>carlosruipath@gmail.com</t>
+  </si>
+  <si>
+    <t>https://micnt.com.ec/cntapp/guia104/php/guia_cntat.php?hflagsubmit=0&amp;cmbcriterio=3</t>
   </si>
 </sst>
 </file>
@@ -398,13 +398,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -420,12 +420,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -433,23 +433,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>587</v>
@@ -457,31 +457,31 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0EA9779F-474B-4005-A827-836F133CBE37}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{741CDE0A-698E-40F8-BFBD-137A183D2FEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carla\OneDrive\Documents\UiPath\UiPath_RPA_CarlosRivadeneira\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29130DEC-C10C-4240-9B88-B36037CAE9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD7B029-3451-48D4-B2C9-133D7622DA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -37,33 +37,6 @@
   </si>
   <si>
     <t>maxPaginas</t>
-  </si>
-  <si>
-    <t>outputFilePath</t>
-  </si>
-  <si>
-    <t>smtpServer</t>
-  </si>
-  <si>
-    <t>smtp.gmail.com</t>
-  </si>
-  <si>
-    <t>smtpPort</t>
-  </si>
-  <si>
-    <t>smtpUser</t>
-  </si>
-  <si>
-    <t>CarlosRUIPATH123</t>
-  </si>
-  <si>
-    <t>smtpPass</t>
-  </si>
-  <si>
-    <t>correoDestino</t>
-  </si>
-  <si>
-    <t>carlosruipath@gmail.com</t>
   </si>
   <si>
     <t>https://micnt.com.ec/cntapp/guia104/php/guia_cntat.php?hflagsubmit=0&amp;cmbcriterio=3</t>
@@ -395,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -429,54 +402,6 @@
       </c>
       <c r="B3">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
